--- a/pred_ohlcv/54_21/2020-01-21 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MIX ohlcv.xlsx
@@ -2654,7 +2654,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10078984.57175513</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-12216218.74855513</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-12226974.10985513</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12391909.06695513</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-12388798.19725513</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-12392897.12055513</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-12545720.76225513</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-12554729.32225513</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-16043065.06375513</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-16452993.47785513</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-16448541.65785513</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-16430820.59835513</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-16410527.10435513</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-18628570.90825513</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-21175496.66745513</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-18315312.84495513</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-18326066.82105513</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MIX ohlcv.xlsx
@@ -2654,7 +2654,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9965737.137555126</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10078984.57175513</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10895583.69605513</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-12241480.97855513</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-12180396.74855513</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-12216218.74855513</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-12226974.10985513</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12391909.06695513</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-12388798.19725513</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-12392897.12055513</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-12545720.76225513</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-12554729.32225513</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-16043065.06375513</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-16452993.47785513</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-16448541.65785513</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-16430820.59835513</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-16410527.10435513</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-18961384.54045513</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-21175496.66745513</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-19777534.52105513</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-18315312.84495513</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
